--- a/src/main/webapp/importTpl/contractCostImportTpl.xlsx
+++ b/src/main/webapp/importTpl/contractCostImportTpl.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,44 @@
   </si>
   <si>
     <t>二级部门(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目实施与服务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品研发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购</t>
+  </si>
+  <si>
+    <t>HT002-20170407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170410ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170417ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅</t>
+  </si>
+  <si>
+    <t>日期必须是日期格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,46 +127,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>项目实施与服务部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品研发部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购</t>
-  </si>
-  <si>
-    <t>HT002-20170407</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HT002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20170410ls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20170417ls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,6 +227,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -227,86 +238,23 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -373,6 +321,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -407,6 +356,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,28 +532,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.09765625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" customWidth="1"/>
+    <col min="13" max="13" width="14.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +572,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -632,7 +582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -643,10 +593,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -658,28 +608,28 @@
         <v>565656</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="7">
         <v>42842</v>
@@ -688,6 +638,14 @@
         <v>565656</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -699,17 +657,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -717,12 +675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
